--- a/Simulation_output.xlsx
+++ b/Simulation_output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpopp\Documents\EUR\Thesis\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614113FB-AE89-4D4B-B419-5E17806BC2FF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B278AF3F-CEDE-4B1B-B18D-71C2D978F00B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="1" xr2:uid="{7491E044-D6F0-48E4-985A-49408C27666B}"/>
   </bookViews>
@@ -387,7 +387,7 @@
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C12"/>
+      <selection activeCell="B9" sqref="B9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,10 +402,10 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>0.56625356748525646</v>
+        <v>0.50807957768658873</v>
       </c>
       <c r="C2">
-        <v>0.49157258603471415</v>
+        <v>0.40138684830619487</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -418,10 +418,10 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>0.56999971860502441</v>
+        <v>0.56252087512649707</v>
       </c>
       <c r="C4">
-        <v>0.4945660246735849</v>
+        <v>0.49565974564915005</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -434,10 +434,10 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>0.5650467726741919</v>
+        <v>0.51386296287672817</v>
       </c>
       <c r="C6">
-        <v>0.49295115523850297</v>
+        <v>0.41655410178746388</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -450,10 +450,10 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>0.56558301633814478</v>
+        <v>0.58433343373536029</v>
       </c>
       <c r="C8">
-        <v>0.49440876568837178</v>
+        <v>0.54922205951650438</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -466,10 +466,10 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>0.56868229923608216</v>
+        <v>0.5187164211698404</v>
       </c>
       <c r="C10">
-        <v>0.49139865619962858</v>
+        <v>0.42448874392935382</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">

--- a/Simulation_output.xlsx
+++ b/Simulation_output.xlsx
@@ -1,33 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpopp\Documents\EUR\Thesis\Code\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B278AF3F-CEDE-4B1B-B18D-71C2D978F00B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="1" xr2:uid="{7491E044-D6F0-48E4-985A-49408C27666B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Linear Simulation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In-sample R^2 </t>
+  </si>
+  <si>
+    <t>Out-of-sample R^2</t>
+  </si>
+  <si>
+    <t>SF(1)</t>
+  </si>
+  <si>
+    <t>PCR</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,8 +79,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,7 +148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -170,7 +200,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -364,131 +394,210 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFA5F55-B212-4DDE-9451-105A40DE7A6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944F13C6-EAA2-4395-8B1A-82AF0346A082}">
-  <dimension ref="B1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C10"/>
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
         <v>50</v>
       </c>
-      <c r="C1">
+      <c r="B3" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>0.50807957768658873</v>
-      </c>
-      <c r="C2">
-        <v>0.40138684830619487</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="C3" s="1">
+        <v>0.50807957800000003</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.53717578639771146</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.12673394597552229</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.40138684800000002</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.45356143394032894</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7.0953966033990026E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
         <v>50</v>
       </c>
-      <c r="C3">
+      <c r="B4" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>0.56252087512649707</v>
-      </c>
-      <c r="C4">
-        <v>0.49565974564915005</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="C4" s="1">
+        <v>0.56252087500000003</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.55903205640467402</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.13219356196622972</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.49565974600000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.52545151973122184</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.11286600017601821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
         <v>100</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>0.51386296287672817</v>
-      </c>
-      <c r="C6">
-        <v>0.41655410178746388</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="C5" s="1">
+        <v>0.51386296300000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.5444541725352996</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.12708139049784745</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.41655410199999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.46632800966336962</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9.0492119619742489E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
         <v>100</v>
       </c>
-      <c r="C7">
+      <c r="B6" s="2">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>0.58433343373536029</v>
-      </c>
-      <c r="C8">
-        <v>0.54922205951650438</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="C6" s="1">
+        <v>0.58433343400000004</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>0.54922205999999996</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
         <v>500</v>
       </c>
-      <c r="C9">
+      <c r="B7" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>0.5187164211698404</v>
-      </c>
-      <c r="C10">
-        <v>0.42448874392935382</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="C7" s="1">
+        <v>0.51871642100000004</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>0.42448874399999997</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
         <v>500</v>
       </c>
-      <c r="C11">
+      <c r="B8" s="2">
         <v>500</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>0.56733052141966023</v>
-      </c>
-      <c r="C12">
-        <v>0.4935383753095956</v>
-      </c>
+      <c r="C8" s="1">
+        <v>0.56733052100000003</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>0.49353837499999997</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Simulation_output.xlsx
+++ b/Simulation_output.xlsx
@@ -20,15 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>p</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In-sample R^2 </t>
   </si>
   <si>
     <t>Out-of-sample R^2</t>
@@ -394,7 +388,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -417,7 +411,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="B1" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -426,38 +420,41 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
+      <c r="B1">
+        <v>50</v>
+      </c>
+      <c r="C1" s="3">
+        <v>100</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="C2" t="s">
+      <c r="B2">
+        <v>0.54304023386758093</v>
+      </c>
+      <c r="C2">
+        <v>0.40311253187511398</v>
+      </c>
+      <c r="D2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">

--- a/Simulation_output.xlsx
+++ b/Simulation_output.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpopp\Documents\EUR\Thesis\Code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AD755B-3325-4AA8-A6E0-C2058D9D3790}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Linear Simulation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,15 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>p</t>
   </si>
   <si>
-    <t>Out-of-sample R^2</t>
+    <t>in-sample R^2</t>
   </si>
   <si>
-    <t>SF(1)</t>
+    <t>out-of-sample R^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SF(1) </t>
   </si>
   <si>
     <t>PCR</t>
@@ -40,11 +49,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,7 +151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -194,7 +203,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -388,172 +397,126 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+      <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>50</v>
-      </c>
-      <c r="C1" s="3">
-        <v>100</v>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8">
-      <c r="B2">
-        <v>0.54304023386758093</v>
-      </c>
-      <c r="C2">
-        <v>0.40311253187511398</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E2" t="e">
-        <v>#N/A</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>50</v>
       </c>
       <c r="B3" s="2">
         <v>100</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.50807957800000003</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.53717578639771146</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.12673394597552229</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.40138684800000002</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.45356143394032894</v>
-      </c>
-      <c r="H3" s="1">
-        <v>7.0953966033990026E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>50</v>
       </c>
       <c r="B4" s="2">
         <v>200</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.56252087500000003</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.55903205640467402</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.13219356196622972</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.49565974600000001</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.52545151973122184</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.11286600017601821</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>100</v>
       </c>
       <c r="B5" s="2">
         <v>100</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.51386296300000001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.5444541725352996</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.12708139049784745</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.41655410199999998</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.46632800966336962</v>
-      </c>
-      <c r="H5" s="1">
-        <v>9.0492119619742489E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>100</v>
       </c>
       <c r="B6" s="2">
         <v>500</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.58433343400000004</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>0.54922205999999996</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>500</v>
       </c>
@@ -561,17 +524,25 @@
         <v>100</v>
       </c>
       <c r="C7" s="1">
-        <v>0.51871642100000004</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>0.61665155663786242</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.60579985799791047</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.19197496741563408</v>
+      </c>
       <c r="F7" s="1">
-        <v>0.42448874399999997</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.48278622855660186</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.5446360010342588</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.11942037257467572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>500</v>
       </c>
@@ -579,15 +550,23 @@
         <v>500</v>
       </c>
       <c r="C8" s="1">
-        <v>0.56733052100000003</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+        <v>0.54566936542172917</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.53320877463896243</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.11822755850674396</v>
+      </c>
       <c r="F8" s="1">
-        <v>0.49353837499999997</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+        <v>0.51429949787785778</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.52854823239680915</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7.4303732970233335E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Simulation_output.xlsx
+++ b/Simulation_output.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpopp\Documents\EUR\Thesis\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AD755B-3325-4AA8-A6E0-C2058D9D3790}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D415CF3F-9138-4F14-96F4-96568EF8ED3D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Linear Simulation" sheetId="2" r:id="rId2"/>
+    <sheet name="Linear Simulation" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -404,23 +403,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:H8"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Simulation_output.xlsx
+++ b/Simulation_output.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpopp\Documents\EUR\Thesis\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D415CF3F-9138-4F14-96F4-96568EF8ED3D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ABE90D-8E56-491D-A3CF-A95E7A0DE6EB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear Simulation" sheetId="2" r:id="rId1"/>
+    <sheet name="Non-linear Simulation" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>p</t>
   </si>
@@ -43,14 +44,30 @@
   </si>
   <si>
     <t>PC1</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out-of-sample R^2 </t>
+  </si>
+  <si>
+    <t>SFi</t>
+  </si>
+  <si>
+    <t>PCRi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCRi </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -81,12 +98,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -406,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -416,16 +434,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -563,4 +581,218 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68FB0D6-A775-4A3D-A471-A2488F8BFA3C}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.42396751280972095</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.41350203484721171</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.45281926120526556</v>
+      </c>
+      <c r="F3" s="3">
+        <v>6.3616980641311688E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-1.6836699926532816E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-1.5977700818906627E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.36862714586895534</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.3065481243142637</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.38318192219353925</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.14553428872221302</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.2657285597368456E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.13642240020246174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.40444847345574375</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.25426637677756736</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.33639502153917467</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.38761451096732197</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.20095703323491995</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.25477167160474373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.29766532499326642</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.31172434098193924</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.36357284610961516</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5.1750736387668909E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.2856547064828689E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3.2431833667966585E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.37902832173935935</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.30862591201207978</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.34491631055334698</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.26495558773579925</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.15907823983569397</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.16705403930418228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>500</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.49337761607712266</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.27965122855201924</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.28511318313821865</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.49374583423327351</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.21102452658033627</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.20897298220716862</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Simulation_output.xlsx
+++ b/Simulation_output.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpopp\Documents\EUR\Thesis\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ABE90D-8E56-491D-A3CF-A95E7A0DE6EB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534ED4C1-B6A4-4170-B8FC-3FF2C2172988}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear Simulation" sheetId="2" r:id="rId1"/>
     <sheet name="Non-linear Simulation" sheetId="3" r:id="rId2"/>
+    <sheet name="goyal" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>p</t>
   </si>
@@ -59,6 +60,18 @@
   </si>
   <si>
     <t xml:space="preserve">PCRi </t>
+  </si>
+  <si>
+    <t>SF(1)</t>
+  </si>
+  <si>
+    <t>PCR(1)</t>
+  </si>
+  <si>
+    <t>k=1</t>
+  </si>
+  <si>
+    <t>k=3</t>
   </si>
 </sst>
 </file>
@@ -587,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68FB0D6-A775-4A3D-A471-A2488F8BFA3C}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,4 +808,133 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A377490C-8718-40DD-8EF7-9D06DC847B98}">
+  <dimension ref="B1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-0.17749999999999999</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5.11E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-3.1800000000000002E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-4.7800000000000002E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>